--- a/FuseLinks/GhendyLinha.xlsx
+++ b/FuseLinks/GhendyLinha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,20 +481,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Tempo Abertura Fase A1 Isolador</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Corrente Fase A1 Isolador</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo Abertura Fase B1 Isolador</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Corrente Fase B1 Isolador</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
         </is>
@@ -540,20 +560,32 @@
       <c r="I2" t="n">
         <v>15.5678</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J2" t="n">
+        <v>1.66593</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.8898</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.60414</v>
       </c>
       <c r="M2" t="n">
+        <v>15.1315</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -603,7 +635,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.2561</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -611,6 +643,22 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,6 +716,22 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>13.7136</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -711,7 +775,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.6576</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -719,6 +783,22 @@
         </is>
       </c>
       <c r="M5" t="n">
+        <v>12.2015</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,6 +858,22 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -825,14 +921,28 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>23.198</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.576754</v>
       </c>
       <c r="M7" t="n">
+        <v>23.6658</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,7 +992,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>19.5958</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -890,6 +1000,22 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -947,6 +1073,22 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>21.0808</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -990,7 +1132,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>21.1755</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -998,6 +1140,22 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>19.7035</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1057,6 +1215,22 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1098,20 +1272,32 @@
       <c r="I12" t="n">
         <v>27.1806</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J12" t="n">
+        <v>0.429051</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>27.0161</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.413091</v>
       </c>
       <c r="M12" t="n">
+        <v>27.4803</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1155,13 +1341,11 @@
       <c r="I13" t="n">
         <v>12.3904</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J13" t="n">
+        <v>0.619353</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.9266</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1169,6 +1353,22 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1220,12 +1420,26 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L14" t="n">
+        <v>0.538148</v>
       </c>
       <c r="M14" t="n">
+        <v>24.4088</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,13 +1483,11 @@
       <c r="I15" t="n">
         <v>27.234</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J15" t="n">
+        <v>0.543342</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.3043</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1283,6 +1495,22 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>22.8493</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1342,6 +1570,22 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1389,14 +1633,28 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>32.1886</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.822533</v>
       </c>
       <c r="M17" t="n">
+        <v>32.8225</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1446,7 +1704,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.9369</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1454,6 +1712,22 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1511,6 +1785,22 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>29.679</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1554,7 +1844,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>29.4247</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1562,6 +1852,22 @@
         </is>
       </c>
       <c r="M20" t="n">
+        <v>26.7696</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1621,6 +1927,22 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1668,14 +1990,28 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>36.7999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.615858</v>
       </c>
       <c r="M22" t="n">
+        <v>37.6617</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1725,7 +2061,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>30.4244</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1733,6 +2069,22 @@
         </is>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1790,6 +2142,22 @@
         </is>
       </c>
       <c r="M24" t="n">
+        <v>34.4345</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1833,7 +2201,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>34.0251</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1841,6 +2209,22 @@
         </is>
       </c>
       <c r="M25" t="n">
+        <v>30.3329</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1900,6 +2284,22 @@
       <c r="M26" t="n">
         <v>0</v>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1947,14 +2347,28 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.6697</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.521915</v>
       </c>
       <c r="M27" t="n">
+        <v>40.7159</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2004,7 +2418,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>32.9006</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2012,6 +2426,22 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2069,6 +2499,22 @@
         </is>
       </c>
       <c r="M29" t="n">
+        <v>37.3098</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2112,7 +2558,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>36.5753</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2120,6 +2566,22 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>32.8807</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,6 +2641,22 @@
       <c r="M31" t="n">
         <v>0</v>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2226,7 +2704,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.4274</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2234,6 +2712,22 @@
         </is>
       </c>
       <c r="M32" t="n">
+        <v>53.0452</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,7 +2777,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>43.1438</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2291,6 +2785,22 @@
         </is>
       </c>
       <c r="M33" t="n">
+        <v>8.3605</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
         <v>8.349550000000001</v>
       </c>
     </row>
@@ -2348,6 +2858,22 @@
         </is>
       </c>
       <c r="M34" t="n">
+        <v>48.709</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2397,7 +2923,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>47.744</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2405,6 +2931,22 @@
         </is>
       </c>
       <c r="M35" t="n">
+        <v>42.4057</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2464,6 +3006,22 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2505,14 +3063,28 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.5489</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.175122</v>
       </c>
       <c r="M37" t="n">
+        <v>63.2195</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2562,7 +3134,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>50.4614</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2570,6 +3142,22 @@
         </is>
       </c>
       <c r="M38" t="n">
+        <v>11.0327</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>11.0218</v>
       </c>
     </row>
@@ -2627,6 +3215,22 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>57.5409</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +3274,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>55.9342</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2678,6 +3282,22 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>49.6117</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,6 +3357,22 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2784,14 +3420,28 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.6631</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.15906</v>
       </c>
       <c r="M42" t="n">
+        <v>66.0005</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2841,7 +3491,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>53.3689</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2849,6 +3499,22 @@
         </is>
       </c>
       <c r="M43" t="n">
+        <v>12.1932</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
         <v>12.1825</v>
       </c>
     </row>
@@ -2906,6 +3572,22 @@
         </is>
       </c>
       <c r="M44" t="n">
+        <v>61.4734</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2949,7 +3631,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>59.9105</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2957,6 +3639,22 @@
         </is>
       </c>
       <c r="M45" t="n">
+        <v>53.1892</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3016,6 +3714,22 @@
       <c r="M46" t="n">
         <v>0</v>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3063,14 +3777,30 @@
         </is>
       </c>
       <c r="K47" t="n">
+        <v>15.4573</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>15.4557</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>15.4505</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
         <v>15.449</v>
       </c>
     </row>
@@ -3120,14 +3850,30 @@
         </is>
       </c>
       <c r="K48" t="n">
+        <v>15.5448</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>15.5185</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>15.5385</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>15.5144</v>
       </c>
     </row>
@@ -3177,14 +3923,30 @@
         </is>
       </c>
       <c r="K49" t="n">
+        <v>15.3793</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>15.4995</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>15.3753</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>15.4935</v>
       </c>
     </row>
@@ -3234,14 +3996,30 @@
         </is>
       </c>
       <c r="K50" t="n">
+        <v>15.3926</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>15.3866</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>15.3513</v>
       </c>
     </row>
@@ -3291,14 +4069,30 @@
         </is>
       </c>
       <c r="K51" t="n">
+        <v>15.4111</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>15.3398</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>15.4077</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>15.3364</v>
       </c>
     </row>
@@ -3348,14 +4142,30 @@
         </is>
       </c>
       <c r="K52" t="n">
+        <v>19.6532</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>19.6236</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
         <v>19.6467</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
         <v>19.6171</v>
       </c>
     </row>
@@ -3405,14 +4215,30 @@
         </is>
       </c>
       <c r="K53" t="n">
+        <v>19.6488</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>19.6244</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>19.6429</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>19.6206</v>
       </c>
     </row>
@@ -3462,14 +4288,30 @@
         </is>
       </c>
       <c r="K54" t="n">
+        <v>19.7222</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>19.727</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>19.7183</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
         <v>10.3428</v>
       </c>
     </row>
@@ -3519,14 +4361,30 @@
         </is>
       </c>
       <c r="K55" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>19.5781</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>19.6543</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
         <v>19.5722</v>
       </c>
     </row>
@@ -3576,14 +4434,30 @@
         </is>
       </c>
       <c r="K56" t="n">
+        <v>19.6914</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>19.6219</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>19.6881</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>19.6187</v>
       </c>
     </row>
@@ -3633,14 +4507,30 @@
         </is>
       </c>
       <c r="K57" t="n">
+        <v>21.7062</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>21.5972</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>21.6999</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
         <v>21.5909</v>
       </c>
     </row>
@@ -3690,14 +4580,30 @@
         </is>
       </c>
       <c r="K58" t="n">
+        <v>21.959</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>21.8977</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
         <v>21.9532</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>21.8939</v>
       </c>
     </row>
@@ -3747,14 +4653,30 @@
         </is>
       </c>
       <c r="K59" t="n">
+        <v>21.7023</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>21.7737</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>21.6986</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>21.768</v>
       </c>
     </row>
@@ -3804,14 +4726,30 @@
         </is>
       </c>
       <c r="K60" t="n">
+        <v>21.8293</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>21.7077</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>21.8236</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>21.7019</v>
       </c>
     </row>
@@ -3861,14 +4799,30 @@
         </is>
       </c>
       <c r="K61" t="n">
+        <v>21.7358</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>21.8559</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>21.7326</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>21.8527</v>
       </c>
     </row>
@@ -3918,14 +4872,30 @@
         </is>
       </c>
       <c r="K62" t="n">
+        <v>23.8687</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>23.8134</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>23.8624</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
         <v>23.8071</v>
       </c>
     </row>
@@ -3975,14 +4945,30 @@
         </is>
       </c>
       <c r="K63" t="n">
+        <v>23.5465</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>23.5391</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
         <v>12.1987</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
         <v>23.5354</v>
       </c>
     </row>
@@ -4032,14 +5018,30 @@
         </is>
       </c>
       <c r="K64" t="n">
+        <v>23.7002</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>23.7605</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>23.6965</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
         <v>23.755</v>
       </c>
     </row>
@@ -4089,14 +5091,30 @@
         </is>
       </c>
       <c r="K65" t="n">
+        <v>23.6568</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>23.5943</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
         <v>23.6513</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
         <v>23.5886</v>
       </c>
     </row>
@@ -4146,14 +5164,30 @@
         </is>
       </c>
       <c r="K66" t="n">
+        <v>23.6558</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>23.7705</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
         <v>23.6527</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
         <v>23.7674</v>
       </c>
     </row>
@@ -4203,14 +5237,30 @@
         </is>
       </c>
       <c r="K67" t="n">
+        <v>27.0726</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>27.1384</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>27.0666</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
         <v>27.1324</v>
       </c>
     </row>
@@ -4260,14 +5310,30 @@
         </is>
       </c>
       <c r="K68" t="n">
+        <v>27.4352</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>27.5676</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>27.4296</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>27.564</v>
       </c>
     </row>
@@ -4317,14 +5383,30 @@
         </is>
       </c>
       <c r="K69" t="n">
+        <v>27.2491</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>27.2379</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>27.2454</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>27.2326</v>
       </c>
     </row>
@@ -4374,14 +5456,30 @@
         </is>
       </c>
       <c r="K70" t="n">
+        <v>27.167</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>27.097</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>27.1617</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>27.0916</v>
       </c>
     </row>
@@ -4431,14 +5529,30 @@
         </is>
       </c>
       <c r="K71" t="n">
+        <v>26.8416</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>27.0155</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>26.8386</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
         <v>27.0126</v>
       </c>
     </row>
